--- a/src/renderer/service/alpha__bug_template.xlsx
+++ b/src/renderer/service/alpha__bug_template.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27809"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAC2DDAA-C080-324F-9187-75B17D479BD9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangshijiang/Workspace/wechat-analyser/src/renderer/service/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="用户档案缺陷模版" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>标题</t>
   </si>
@@ -150,40 +162,37 @@
   </si>
   <si>
     <t>印象</t>
+  </si>
+  <si>
+    <t>状态</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -198,12 +207,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -504,169 +512,163 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AT1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="73.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" customWidth="1"/>
     <col min="4" max="4" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="45" width="20" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="46" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>38</v>
       </c>
       <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{B0E0F978-A3B9-304D-B269-EAEE930591B3}">
-      <formula1>"合同库,chrome浏览器,项目模板,任务模板,合同模板,文书模板,账号,帮助中心,收藏夹,行业雷达,培训,部门,工作类型,服务报告,利冲,职级,日历,其他,安卓,ios,wordalpha,chrome插件,文档,任务,计时,享聊,大数据,联系人,通知,权限,系统,AlphaBox,项目,登录,市场拓展,KM,审批,客户端,设置,安装指引,Note,成就分析,财务,报表,课程"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{87B065D3-68B1-0640-A412-589FBDB5CBFA}">
-      <formula1>"bug,使用问题,安装问题,需求,校友肯定,其他问题"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
